--- a/data/trans_dic/P19D_R2-Clase-trans_dic.xlsx
+++ b/data/trans_dic/P19D_R2-Clase-trans_dic.xlsx
@@ -685,7 +685,7 @@
         <v>0.9505359133917552</v>
       </c>
       <c r="J4" s="5" t="n">
-        <v>0.9776478382227963</v>
+        <v>0.9776478382227962</v>
       </c>
       <c r="K4" s="5" t="n">
         <v>0.9599659080062514</v>
@@ -697,7 +697,7 @@
         <v>0.9527888269794471</v>
       </c>
       <c r="N4" s="5" t="n">
-        <v>0.9737779911926752</v>
+        <v>0.9737779911926751</v>
       </c>
     </row>
     <row r="5">
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.9230288008355795</v>
+        <v>0.9241049223832016</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.941693959318081</v>
+        <v>0.9470388681335034</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.9287112871067323</v>
+        <v>0.9284713396472876</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.9506022044597291</v>
+        <v>0.9500206815496187</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.9384433911651973</v>
+        <v>0.9398861986292595</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.9194198930726583</v>
+        <v>0.916092012113878</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.919356962210449</v>
+        <v>0.9186525332959335</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.965735539741292</v>
+        <v>0.9646910217190726</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.9401608803997575</v>
+        <v>0.9384701850076665</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.9406711148883383</v>
+        <v>0.9420396960418593</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.9323910466172041</v>
+        <v>0.9330704430479521</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.9610691295586143</v>
+        <v>0.9614993019998638</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.9720962974472247</v>
+        <v>0.9720376030334358</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.9820375165680466</v>
+        <v>0.9842956153196963</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.9720015806881331</v>
+        <v>0.9727289194168686</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.9832037846395673</v>
+        <v>0.9830295883775767</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.9850225974815581</v>
+        <v>0.9848360205528964</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.9734048165990488</v>
+        <v>0.9734696795732604</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.9709112378211601</v>
+        <v>0.9712359316590873</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.9866983371011462</v>
+        <v>0.9867765355281549</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.973351147845634</v>
+        <v>0.9725170388777653</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.9737703177255294</v>
+        <v>0.9747608870527324</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.9668777778349646</v>
+        <v>0.9667941461439362</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.9821621477264955</v>
+        <v>0.9822621437099962</v>
       </c>
     </row>
     <row r="7">
@@ -809,7 +809,7 @@
         <v>0.9283442227716994</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>0.9673671865690449</v>
+        <v>0.9673671865690446</v>
       </c>
       <c r="G7" s="5" t="n">
         <v>0.9643461315341142</v>
@@ -821,7 +821,7 @@
         <v>0.9466738180426065</v>
       </c>
       <c r="J7" s="5" t="n">
-        <v>0.9727336876138086</v>
+        <v>0.9727336876138085</v>
       </c>
       <c r="K7" s="5" t="n">
         <v>0.9555169545659566</v>
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.9066006384604952</v>
+        <v>0.9072850975994902</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.8807605826337704</v>
+        <v>0.8763634985334127</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.894568063650153</v>
+        <v>0.8937637401773356</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.9466619204161527</v>
+        <v>0.9465439000811746</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.9418101793047429</v>
+        <v>0.9400364454833873</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.9010401629943254</v>
+        <v>0.899387860720778</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.9146376748235984</v>
+        <v>0.9149861477929268</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.9571084111132816</v>
+        <v>0.9568947910703498</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.9360090607294123</v>
+        <v>0.9349560454548224</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.9001190234205748</v>
+        <v>0.9004087227616058</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.9163236534141541</v>
+        <v>0.915611054255834</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.9571782637906594</v>
+        <v>0.9579328810803535</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.9682789974824666</v>
+        <v>0.9711216382559881</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.9428432441661939</v>
+        <v>0.9438901618859982</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.9545403476853888</v>
+        <v>0.9538883996849454</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.9803092382449731</v>
+        <v>0.9802284783388138</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.9798471382857239</v>
+        <v>0.9798491620477513</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.9591847593360917</v>
+        <v>0.9607222972970061</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.9671595671261392</v>
+        <v>0.9682548547766749</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.9843711654339273</v>
+        <v>0.9839312948709751</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.9714815527368522</v>
+        <v>0.9718884726858986</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.9433090930311299</v>
+        <v>0.9453604347836422</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.9546815503226816</v>
+        <v>0.9558167658564364</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.9788877891659383</v>
+        <v>0.9783893476192673</v>
       </c>
     </row>
     <row r="10">
@@ -945,7 +945,7 @@
         <v>0.9088357729845697</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>0.9195173074174061</v>
+        <v>0.9195173074174062</v>
       </c>
       <c r="G10" s="5" t="n">
         <v>0.9384827381984422</v>
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.8997375390753326</v>
+        <v>0.9012369490532535</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.8397477956266921</v>
+        <v>0.8384744182036914</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.8789903396446619</v>
+        <v>0.874253684006806</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.885208879811363</v>
+        <v>0.886197081815551</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.885200254509876</v>
+        <v>0.883025086471131</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.9037138989058449</v>
+        <v>0.9019443411020754</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.8388793222322387</v>
+        <v>0.8356002745877331</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.9295878441560457</v>
+        <v>0.9280079287929106</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.9051841269251807</v>
+        <v>0.9049358411820301</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.8669722738279396</v>
+        <v>0.8686683730852187</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.8779610216850317</v>
+        <v>0.8778474081100002</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.9070643505100974</v>
+        <v>0.9059932619114243</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.9496078068159071</v>
+        <v>0.9478492032456602</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.9049804797877324</v>
+        <v>0.8991394704968108</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.9350427947996524</v>
+        <v>0.9340718175349465</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.9426039208737704</v>
+        <v>0.942420256479403</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.9699461538620198</v>
+        <v>0.9708027317255492</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.9661229150596752</v>
+        <v>0.9668333346912716</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.9408234729623259</v>
+        <v>0.9418438644460571</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.9799571175037205</v>
+        <v>0.9797401036472216</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.9483929055730846</v>
+        <v>0.9477076142753823</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.9138872053068029</v>
+        <v>0.9152679286446032</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.9298099566132875</v>
+        <v>0.9293300615050374</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.9488015504074626</v>
+        <v>0.9494218030922696</v>
       </c>
     </row>
     <row r="13">
@@ -1081,7 +1081,7 @@
         <v>0.9145209727609964</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>0.9084362595233235</v>
+        <v>0.9084362595233233</v>
       </c>
       <c r="G13" s="5" t="n">
         <v>0.9292518796463776</v>
@@ -1093,7 +1093,7 @@
         <v>0.9009747093174179</v>
       </c>
       <c r="J13" s="5" t="n">
-        <v>0.9564062094916317</v>
+        <v>0.9564062094916319</v>
       </c>
       <c r="K13" s="5" t="n">
         <v>0.9232377025852193</v>
@@ -1105,7 +1105,7 @@
         <v>0.9085946192982266</v>
       </c>
       <c r="N13" s="5" t="n">
-        <v>0.929184239381438</v>
+        <v>0.9291842393814381</v>
       </c>
     </row>
     <row r="14">
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.8981439588953657</v>
+        <v>0.8983709273999437</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.7882178881141412</v>
+        <v>0.7896683192895385</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.8953971464247791</v>
+        <v>0.8941105647128068</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.8875505682437959</v>
+        <v>0.8885784248397212</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.9039901284747882</v>
+        <v>0.9054523478289211</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.8796792358800349</v>
+        <v>0.8785904630093633</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.872005925176267</v>
+        <v>0.8728238081152148</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.9415768820010612</v>
+        <v>0.941280337693667</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.9071502135096247</v>
+        <v>0.9081502629214959</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.8339133563217058</v>
+        <v>0.8344471286709306</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.8930024150796142</v>
+        <v>0.8925400906248578</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.9157582886194928</v>
+        <v>0.9159332279769627</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.9350918136613845</v>
+        <v>0.9355358506274609</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.8403971463193792</v>
+        <v>0.8402600826452407</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.9330998245309075</v>
+        <v>0.9316216934626175</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.924897909280291</v>
+        <v>0.9247725421196062</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.9484033825966756</v>
+        <v>0.9483112333953664</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.9256918658978566</v>
+        <v>0.9247388705381637</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.9197883170770618</v>
+        <v>0.9210964112999894</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.9666957442801104</v>
+        <v>0.9662995578232725</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.9361993947320856</v>
+        <v>0.9369806463477028</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.8690093615987682</v>
+        <v>0.8702734110042784</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.9233311347110955</v>
+        <v>0.9231558733729591</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.9399612485434865</v>
+        <v>0.9402361769875303</v>
       </c>
     </row>
     <row r="16">
@@ -1217,7 +1217,7 @@
         <v>0.8460560844909341</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>0.8115473846161215</v>
+        <v>0.8115473846161217</v>
       </c>
       <c r="G16" s="5" t="n">
         <v>0.9239802524798053</v>
@@ -1229,7 +1229,7 @@
         <v>0.9018843927516573</v>
       </c>
       <c r="J16" s="5" t="n">
-        <v>0.9103431251208566</v>
+        <v>0.9103431251208568</v>
       </c>
       <c r="K16" s="5" t="n">
         <v>0.8993716600159603</v>
@@ -1252,40 +1252,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.8075778552976501</v>
+        <v>0.8070168612854852</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.7538707373776719</v>
+        <v>0.7469368597538645</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.8081355494823942</v>
+        <v>0.8050637168825199</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.7715732233972915</v>
+        <v>0.7726339939860331</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.8946832060871257</v>
+        <v>0.8964129567182779</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.8069354089627041</v>
+        <v>0.8068626700859044</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.874103801299095</v>
+        <v>0.876434673241318</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.8932954072442758</v>
+        <v>0.8909402610484694</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.8744742211317895</v>
+        <v>0.8750653163851803</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.796321876490246</v>
+        <v>0.7952736232857722</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.8561078399948481</v>
+        <v>0.8539249242123428</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.8504764375186075</v>
+        <v>0.8522476587321814</v>
       </c>
     </row>
     <row r="18">
@@ -1296,40 +1296,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.8941303030826039</v>
+        <v>0.8938024599855705</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.833075164999837</v>
+        <v>0.8305125442081147</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.8783016576215399</v>
+        <v>0.8803961928047056</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.846652732055902</v>
+        <v>0.8477504145223607</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.9464634858048305</v>
+        <v>0.9467861253095209</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.8650113429017874</v>
+        <v>0.8624297354112715</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.9243326814976571</v>
+        <v>0.9250542113246697</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.9259310839664269</v>
+        <v>0.925296477890401</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.9180886071805272</v>
+        <v>0.9192660838728414</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.8439519352614614</v>
+        <v>0.8412573268094732</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.8992578138047402</v>
+        <v>0.8960595226476424</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.8893047393259874</v>
+        <v>0.8892443192515948</v>
       </c>
     </row>
     <row r="19">
@@ -1365,7 +1365,7 @@
         <v>0.8996313504194873</v>
       </c>
       <c r="J19" s="5" t="n">
-        <v>0.9227864464094878</v>
+        <v>0.9227864464094877</v>
       </c>
       <c r="K19" s="5" t="n">
         <v>0.9210929200600716</v>
@@ -1388,40 +1388,40 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.9414523238015342</v>
+        <v>0.9392763610274042</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.8507443340571266</v>
+        <v>0.8596230547888822</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.8212784462446624</v>
+        <v>0.8213883937996415</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.8655653673625372</v>
+        <v>0.8609272998531233</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.891764229370398</v>
+        <v>0.8901173359152585</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>0.8454513336262028</v>
+        <v>0.8473799481893042</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>0.8782324831685616</v>
+        <v>0.8772183726136404</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>0.9038872020134691</v>
+        <v>0.9049079014461141</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>0.9058809568379795</v>
+        <v>0.9057904563468021</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>0.8595318934124</v>
+        <v>0.858529627988593</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>0.8727453933453115</v>
+        <v>0.8741921594628055</v>
       </c>
       <c r="N20" s="5" t="n">
-        <v>0.9041598271900804</v>
+        <v>0.9065136024897017</v>
       </c>
     </row>
     <row r="21">
@@ -1432,40 +1432,40 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.9871713926585624</v>
+        <v>0.9867078938014132</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.9370006580662743</v>
+        <v>0.9370659514118224</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.9077509904114167</v>
+        <v>0.9129376019684717</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>0.9731978134118213</v>
+        <v>0.9715817149559708</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>0.9263800828961452</v>
+        <v>0.9271018259184254</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>0.8913890634605864</v>
+        <v>0.8906139333182178</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>0.9206841745565528</v>
+        <v>0.9189897241429625</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>0.9386026659994268</v>
+        <v>0.9390132329465524</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>0.937072530108024</v>
+        <v>0.9352551232226612</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>0.8961043003177459</v>
+        <v>0.896440805638961</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>0.9112649637088213</v>
+        <v>0.9114024268311066</v>
       </c>
       <c r="N21" s="5" t="n">
-        <v>0.9402610067094979</v>
+        <v>0.9424992356043497</v>
       </c>
     </row>
     <row r="22">
@@ -1513,7 +1513,7 @@
         <v>0.908855058400338</v>
       </c>
       <c r="N22" s="5" t="n">
-        <v>0.9298922708499786</v>
+        <v>0.9298922708499784</v>
       </c>
     </row>
     <row r="23">
@@ -1524,40 +1524,40 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.9163758655403674</v>
+        <v>0.915572605152168</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.8477499120045819</v>
+        <v>0.8496523681481607</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.8941927255529079</v>
+        <v>0.8955866625926991</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.9034427232405757</v>
+        <v>0.9041267762228185</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.9194497011641029</v>
+        <v>0.9198004796064008</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.8792923162910133</v>
+        <v>0.8777130364430384</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>0.8999290500279583</v>
+        <v>0.9005220284839948</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>0.9358993337723009</v>
+        <v>0.9360035038034966</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>0.9211447966078425</v>
+        <v>0.9219532862823291</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>0.8684073378921271</v>
+        <v>0.8676482175296085</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>0.9002224871071453</v>
+        <v>0.900402429527015</v>
       </c>
       <c r="N23" s="5" t="n">
-        <v>0.9238528260252015</v>
+        <v>0.9236050080157614</v>
       </c>
     </row>
     <row r="24">
@@ -1568,40 +1568,40 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.9373751499332207</v>
+        <v>0.9365924110840931</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.8751594645093258</v>
+        <v>0.876602532884966</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.916054250973838</v>
+        <v>0.9169216678089182</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.9254096887086996</v>
+        <v>0.9257005527758781</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.9399187191192412</v>
+        <v>0.9394738547108453</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.9020969574174158</v>
+        <v>0.9015574514695183</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>0.9216138134957507</v>
+        <v>0.9216577788212457</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>0.9490218964917074</v>
+        <v>0.9490848823414868</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>0.9353477405628795</v>
+        <v>0.9359047905823072</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>0.8855754011408089</v>
+        <v>0.8862912005351903</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>0.9164605499611644</v>
+        <v>0.9165667516897783</v>
       </c>
       <c r="N24" s="5" t="n">
-        <v>0.9364266896484189</v>
+        <v>0.9356094863615454</v>
       </c>
     </row>
     <row r="25">
@@ -1874,40 +1874,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>357956</v>
+        <v>358373</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>370309</v>
+        <v>372411</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>359126</v>
+        <v>359033</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>516720</v>
+        <v>516404</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>251772</v>
+        <v>252159</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>268474</v>
+        <v>267503</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>290348</v>
+        <v>290125</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>466819</v>
+        <v>466314</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>616834</v>
+        <v>615725</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>644586</v>
+        <v>645524</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>655013</v>
+        <v>655490</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>986973</v>
+        <v>987415</v>
       </c>
     </row>
     <row r="7">
@@ -1918,40 +1918,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>376985</v>
+        <v>376962</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>386173</v>
+        <v>387061</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>375866</v>
+        <v>376147</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>534441</v>
+        <v>534346</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>264269</v>
+        <v>264219</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>284238</v>
+        <v>284257</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>306629</v>
+        <v>306732</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>476952</v>
+        <v>476990</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>638610</v>
+        <v>638063</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>667267</v>
+        <v>667946</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>679240</v>
+        <v>679182</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>1008634</v>
+        <v>1008737</v>
       </c>
     </row>
     <row r="8">
@@ -2054,40 +2054,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>272166</v>
+        <v>272372</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>337062</v>
+        <v>335379</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>282336</v>
+        <v>282082</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>454526</v>
+        <v>454469</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>314155</v>
+        <v>313563</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>282477</v>
+        <v>281959</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>305100</v>
+        <v>305217</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>399281</v>
+        <v>399192</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>593214</v>
+        <v>592547</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>626658</v>
+        <v>626860</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>594864</v>
+        <v>594402</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>858885</v>
+        <v>859562</v>
       </c>
     </row>
     <row r="11">
@@ -2098,40 +2098,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>290682</v>
+        <v>291536</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>360820</v>
+        <v>361221</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>301263</v>
+        <v>301058</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>470681</v>
+        <v>470642</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>326843</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>300705</v>
+        <v>301187</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>322620</v>
+        <v>322986</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>410654</v>
+        <v>410471</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>615696</v>
+        <v>615954</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>656727</v>
+        <v>658155</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>619766</v>
+        <v>620503</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>878365</v>
+        <v>877918</v>
       </c>
     </row>
     <row r="12">
@@ -2234,40 +2234,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>387127</v>
+        <v>387773</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>448894</v>
+        <v>448213</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>356177</v>
+        <v>354257</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>411452</v>
+        <v>411911</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>123988</v>
+        <v>123684</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>217578</v>
+        <v>217152</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>116957</v>
+        <v>116500</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>173036</v>
+        <v>172742</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>516258</v>
+        <v>516117</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>672179</v>
+        <v>673494</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>478167</v>
+        <v>478105</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>590454</v>
+        <v>589756</v>
       </c>
     </row>
     <row r="15">
@@ -2278,40 +2278,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>408585</v>
+        <v>407828</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>483765</v>
+        <v>480642</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>378890</v>
+        <v>378496</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>438130</v>
+        <v>438044</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>135858</v>
+        <v>135978</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>232604</v>
+        <v>232775</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>131171</v>
+        <v>131313</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>182412</v>
+        <v>182372</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>540902</v>
+        <v>540511</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>708553</v>
+        <v>709624</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>506405</v>
+        <v>506144</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>617622</v>
+        <v>618026</v>
       </c>
     </row>
     <row r="16">
@@ -2414,40 +2414,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>783444</v>
+        <v>783642</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>764318</v>
+        <v>765725</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>787506</v>
+        <v>786375</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>972816</v>
+        <v>973942</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>539003</v>
+        <v>539875</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>612120</v>
+        <v>611362</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>596479</v>
+        <v>597039</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>786591</v>
+        <v>786344</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>1332187</v>
+        <v>1333656</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>1388902</v>
+        <v>1389791</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>1396241</v>
+        <v>1395519</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>1768756</v>
+        <v>1769094</v>
       </c>
     </row>
     <row r="19">
@@ -2458,40 +2458,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>815673</v>
+        <v>816060</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>814915</v>
+        <v>814783</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>820666</v>
+        <v>819366</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>1013751</v>
+        <v>1013614</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>565485</v>
+        <v>565430</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>644137</v>
+        <v>643474</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>629164</v>
+        <v>630058</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>807576</v>
+        <v>807245</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>1374847</v>
+        <v>1375994</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>1447355</v>
+        <v>1449460</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>1443661</v>
+        <v>1443387</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>1815503</v>
+        <v>1816034</v>
       </c>
     </row>
     <row r="20">
@@ -2594,40 +2594,40 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>200220</v>
+        <v>200081</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>303320</v>
+        <v>300530</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>343594</v>
+        <v>342288</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>392028</v>
+        <v>392567</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>408047</v>
+        <v>408836</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>542039</v>
+        <v>541990</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>487296</v>
+        <v>488596</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>711524</v>
+        <v>709648</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>615636</v>
+        <v>616052</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>855309</v>
+        <v>854184</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>841254</v>
+        <v>839109</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>1109537</v>
+        <v>1111847</v>
       </c>
     </row>
     <row r="23">
@@ -2638,40 +2638,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>221679</v>
+        <v>221598</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>335188</v>
+        <v>334157</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>373427</v>
+        <v>374317</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>430175</v>
+        <v>430733</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>431663</v>
+        <v>431810</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>581050</v>
+        <v>579316</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>515298</v>
+        <v>515700</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>737519</v>
+        <v>737013</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>646341</v>
+        <v>647170</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>906468</v>
+        <v>903573</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>883656</v>
+        <v>880513</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>1160192</v>
+        <v>1160113</v>
       </c>
     </row>
     <row r="24">
@@ -2774,40 +2774,40 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>199807</v>
+        <v>199345</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>188987</v>
+        <v>190959</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>198378</v>
+        <v>198405</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>192637</v>
+        <v>191605</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>843267</v>
+        <v>841709</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>782535</v>
+        <v>784320</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>723679</v>
+        <v>722844</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>737989</v>
+        <v>738822</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>1048873</v>
+        <v>1048769</v>
       </c>
       <c r="L26" s="6" t="n">
-        <v>986506</v>
+        <v>985356</v>
       </c>
       <c r="M26" s="6" t="n">
-        <v>929968</v>
+        <v>931509</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>939437</v>
+        <v>941882</v>
       </c>
     </row>
     <row r="27">
@@ -2818,40 +2818,40 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>209510</v>
+        <v>209412</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>208148</v>
+        <v>208163</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>219265</v>
+        <v>220518</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>216591</v>
+        <v>216231</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>876000</v>
+        <v>876682</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>825054</v>
+        <v>824336</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>758660</v>
+        <v>757264</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>766332</v>
+        <v>766668</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>1084988</v>
+        <v>1082884</v>
       </c>
       <c r="L27" s="6" t="n">
-        <v>1028481</v>
+        <v>1028868</v>
       </c>
       <c r="M27" s="6" t="n">
-        <v>971013</v>
+        <v>971159</v>
       </c>
       <c r="N27" s="6" t="n">
-        <v>976946</v>
+        <v>979272</v>
       </c>
     </row>
     <row r="28">
@@ -2954,40 +2954,40 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>2245791</v>
+        <v>2243822</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>2462427</v>
+        <v>2467953</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>2372953</v>
+        <v>2376652</v>
       </c>
       <c r="F30" s="6" t="n">
-        <v>2995117</v>
+        <v>2997385</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>2519167</v>
+        <v>2520128</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>2760464</v>
+        <v>2755506</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>2568705</v>
+        <v>2570398</v>
       </c>
       <c r="J30" s="6" t="n">
-        <v>3308473</v>
+        <v>3308842</v>
       </c>
       <c r="K30" s="6" t="n">
-        <v>4781289</v>
+        <v>4785485</v>
       </c>
       <c r="L30" s="6" t="n">
-        <v>5248722</v>
+        <v>5244134</v>
       </c>
       <c r="M30" s="6" t="n">
-        <v>4958497</v>
+        <v>4959488</v>
       </c>
       <c r="N30" s="6" t="n">
-        <v>6328669</v>
+        <v>6326971</v>
       </c>
     </row>
     <row r="31">
@@ -2998,40 +2998,40 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>2297254</v>
+        <v>2295336</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>2542042</v>
+        <v>2546234</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>2430968</v>
+        <v>2433270</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>3067942</v>
+        <v>3068907</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>2575249</v>
+        <v>2574031</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>2832058</v>
+        <v>2830364</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>2630601</v>
+        <v>2630727</v>
       </c>
       <c r="J31" s="6" t="n">
-        <v>3354863</v>
+        <v>3355085</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>4855010</v>
+        <v>4857902</v>
       </c>
       <c r="L31" s="6" t="n">
-        <v>5352487</v>
+        <v>5356813</v>
       </c>
       <c r="M31" s="6" t="n">
-        <v>5047937</v>
+        <v>5048522</v>
       </c>
       <c r="N31" s="6" t="n">
-        <v>6414804</v>
+        <v>6409206</v>
       </c>
     </row>
     <row r="32">
